--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H2">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.9024289107934966</v>
       </c>
       <c r="Q2">
-        <v>5.358900577957778</v>
+        <v>73.86740999168022</v>
       </c>
       <c r="R2">
-        <v>48.23010520162</v>
+        <v>664.8066899251221</v>
       </c>
       <c r="S2">
-        <v>0.1463649867463054</v>
+        <v>0.6564302542032383</v>
       </c>
       <c r="T2">
-        <v>0.1463649867463054</v>
+        <v>0.6564302542032383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H3">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>0.09757108920650338</v>
       </c>
       <c r="Q3">
-        <v>0.5794071533911112</v>
+        <v>7.986583279356889</v>
       </c>
       <c r="R3">
-        <v>5.21466438052</v>
+        <v>71.87924951421201</v>
       </c>
       <c r="S3">
-        <v>0.0158250594675378</v>
+        <v>0.07097358487151587</v>
       </c>
       <c r="T3">
-        <v>0.0158250594675378</v>
+        <v>0.07097358487151587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>20.318999</v>
       </c>
       <c r="I4">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J4">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>78.80132479279099</v>
       </c>
       <c r="S4">
-        <v>0.2391401555247023</v>
+        <v>0.07780844334028869</v>
       </c>
       <c r="T4">
-        <v>0.2391401555247023</v>
+        <v>0.07780844334028869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>20.318999</v>
       </c>
       <c r="I5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -756,10 +756,10 @@
         <v>8.520040746686</v>
       </c>
       <c r="S5">
-        <v>0.02585595958693434</v>
+        <v>0.008412689881022352</v>
       </c>
       <c r="T5">
-        <v>0.02585595958693434</v>
+        <v>0.008412689881022352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>43.921413</v>
       </c>
       <c r="I6">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J6">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -818,10 +818,10 @@
         <v>170.336419189317</v>
       </c>
       <c r="S6">
-        <v>0.5169237685224889</v>
+        <v>0.1681902132499696</v>
       </c>
       <c r="T6">
-        <v>0.5169237685224889</v>
+        <v>0.1681902132499696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>43.921413</v>
       </c>
       <c r="I7">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J7">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -880,10 +880,10 @@
         <v>18.416863370682</v>
       </c>
       <c r="S7">
-        <v>0.05589007015203123</v>
+        <v>0.01818481445396516</v>
       </c>
       <c r="T7">
-        <v>0.05589007015203125</v>
+        <v>0.01818481445396516</v>
       </c>
     </row>
   </sheetData>
